--- a/Data/EC/NIT-9004476938.xlsx
+++ b/Data/EC/NIT-9004476938.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A3E904-2189-4141-A77C-7F22D96B05CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32B6B3E1-B04E-4F83-A13F-EF384815C4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{896ECA28-2195-4909-888A-619EAE987DFC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{90D94963-B2DF-4972-AE9D-187403F4F924}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,64 +71,64 @@
     <t>HERNANDO OLIVO SEMACARITT</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>8852634</t>
+  </si>
+  <si>
+    <t>JULIO HERNANDO CASTELLANO RICARDO</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>8852634</t>
-  </si>
-  <si>
-    <t>JULIO HERNANDO CASTELLANO RICARDO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -227,7 +227,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -240,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -442,23 +442,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,10 +486,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53359D8-C365-1A19-CD95-4D2C93C4B1E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB31923-CA71-FC97-787E-A33D952C66EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E9EA4-7A4E-4557-BC2B-83BCCB3BB507}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6647DC6-A62C-48A0-BD9D-C51CDE6B890A}">
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1361,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>200000</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>5000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1390,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>27578</v>
@@ -1407,19 +1407,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>27578</v>
+        <v>200000</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>5000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1453,19 +1453,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
-        <v>27578</v>
+        <v>200000</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>5000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1476,19 +1476,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F34" s="18">
-        <v>200000</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>5000000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1499,13 +1499,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
         <v>200000</v>
@@ -1522,19 +1522,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F36" s="18">
-        <v>200000</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>5000000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1545,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F37" s="18">
         <v>200000</v>
@@ -1568,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F38" s="18">
-        <v>200000</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>5000000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1591,13 +1591,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D39" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>16</v>
       </c>
       <c r="F39" s="24">
         <v>200000</v>
